--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Calr-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Calr-Tshr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H2">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I2">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J2">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N2">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O2">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P2">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q2">
-        <v>21.33333197335333</v>
+        <v>39.49448584156499</v>
       </c>
       <c r="R2">
-        <v>191.99998776018</v>
+        <v>355.450372574085</v>
       </c>
       <c r="S2">
-        <v>0.01566801733960173</v>
+        <v>0.0228803441621053</v>
       </c>
       <c r="T2">
-        <v>0.01566801733960173</v>
+        <v>0.0228803441621053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H3">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I3">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J3">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.542951</v>
       </c>
       <c r="O3">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P3">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q3">
-        <v>203.5419247975038</v>
+        <v>136.1281056949461</v>
       </c>
       <c r="R3">
-        <v>1831.877323177534</v>
+        <v>1225.152951254515</v>
       </c>
       <c r="S3">
-        <v>0.1494889973608709</v>
+        <v>0.07886310815465457</v>
       </c>
       <c r="T3">
-        <v>0.149488997360871</v>
+        <v>0.07886310815465458</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H4">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I4">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J4">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N4">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O4">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P4">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q4">
-        <v>75.90310358924378</v>
+        <v>90.15332839695391</v>
       </c>
       <c r="R4">
-        <v>683.127932303194</v>
+        <v>811.3799555725852</v>
       </c>
       <c r="S4">
-        <v>0.05574615088966444</v>
+        <v>0.05222853613935968</v>
       </c>
       <c r="T4">
-        <v>0.05574615088966444</v>
+        <v>0.05222853613935968</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H5">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I5">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J5">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N5">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O5">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P5">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q5">
-        <v>16.193603237326</v>
+        <v>19.88933276645666</v>
       </c>
       <c r="R5">
-        <v>145.742429135934</v>
+        <v>179.00399489811</v>
       </c>
       <c r="S5">
-        <v>0.011893203397855</v>
+        <v>0.01152248900458489</v>
       </c>
       <c r="T5">
-        <v>0.01189320339785499</v>
+        <v>0.01152248900458489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>494.369293</v>
       </c>
       <c r="I6">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J6">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N6">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O6">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P6">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q6">
-        <v>37.66929222895667</v>
+        <v>104.272865648853</v>
       </c>
       <c r="R6">
-        <v>339.02363006061</v>
+        <v>938.4557908396769</v>
       </c>
       <c r="S6">
-        <v>0.02766577319243982</v>
+        <v>0.06040840897095179</v>
       </c>
       <c r="T6">
-        <v>0.02766577319243981</v>
+        <v>0.0604084089709518</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>494.369293</v>
       </c>
       <c r="I7">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J7">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>6.542951</v>
       </c>
       <c r="O7">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P7">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q7">
         <v>359.4037844448492</v>
@@ -883,10 +883,10 @@
         <v>3234.634060003643</v>
       </c>
       <c r="S7">
-        <v>0.2639599258865907</v>
+        <v>0.208213427926358</v>
       </c>
       <c r="T7">
-        <v>0.2639599258865906</v>
+        <v>0.208213427926358</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>494.369293</v>
       </c>
       <c r="I8">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J8">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N8">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O8">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P8">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q8">
-        <v>134.0257674590792</v>
+        <v>238.0217313739309</v>
       </c>
       <c r="R8">
-        <v>1206.231907131713</v>
+        <v>2142.195582365378</v>
       </c>
       <c r="S8">
-        <v>0.09843366479859836</v>
+        <v>0.1378931518122002</v>
       </c>
       <c r="T8">
-        <v>0.09843366479859834</v>
+        <v>0.1378931518122002</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>494.369293</v>
       </c>
       <c r="I9">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J9">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N9">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O9">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P9">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q9">
-        <v>28.593825537827</v>
+        <v>52.51157672293133</v>
       </c>
       <c r="R9">
-        <v>257.344429840443</v>
+        <v>472.6041905063819</v>
       </c>
       <c r="S9">
-        <v>0.02100040232307878</v>
+        <v>0.03042153663514706</v>
       </c>
       <c r="T9">
-        <v>0.02100040232307878</v>
+        <v>0.03042153663514706</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H10">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I10">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J10">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N10">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O10">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P10">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q10">
-        <v>10.72971941411333</v>
+        <v>36.37516251730499</v>
       </c>
       <c r="R10">
-        <v>96.56747472702</v>
+        <v>327.3764626557449</v>
       </c>
       <c r="S10">
-        <v>0.007880317525615464</v>
+        <v>0.02107322629004938</v>
       </c>
       <c r="T10">
-        <v>0.007880317525615464</v>
+        <v>0.02107322629004939</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H11">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I11">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J11">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.542951</v>
       </c>
       <c r="O11">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P11">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q11">
-        <v>102.3725569364251</v>
+        <v>125.3765395931617</v>
       </c>
       <c r="R11">
-        <v>921.353012427826</v>
+        <v>1128.388856338455</v>
       </c>
       <c r="S11">
-        <v>0.07518633278583668</v>
+        <v>0.07263440236323603</v>
       </c>
       <c r="T11">
-        <v>0.0751863327858367</v>
+        <v>0.07263440236323604</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H12">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I12">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J12">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N12">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O12">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P12">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q12">
-        <v>38.17589325428511</v>
+        <v>83.03290705113835</v>
       </c>
       <c r="R12">
-        <v>343.583039288566</v>
+        <v>747.2961634602452</v>
       </c>
       <c r="S12">
-        <v>0.02803784041846059</v>
+        <v>0.0481034617777129</v>
       </c>
       <c r="T12">
-        <v>0.02803784041846059</v>
+        <v>0.0481034617777129</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H13">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I13">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J13">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N13">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O13">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P13">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q13">
-        <v>8.144663911714</v>
+        <v>18.31844867263</v>
       </c>
       <c r="R13">
-        <v>73.30197520542599</v>
+        <v>164.86603805367</v>
       </c>
       <c r="S13">
-        <v>0.005981753602923219</v>
+        <v>0.01061242857615657</v>
       </c>
       <c r="T13">
-        <v>0.005981753602923218</v>
+        <v>0.01061242857615657</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H14">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I14">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J14">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N14">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O14">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P14">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q14">
-        <v>21.90710963662</v>
+        <v>58.50282599126699</v>
       </c>
       <c r="R14">
-        <v>197.16398672958</v>
+        <v>526.5254339214029</v>
       </c>
       <c r="S14">
-        <v>0.01608942166539422</v>
+        <v>0.03389244763194785</v>
       </c>
       <c r="T14">
-        <v>0.01608942166539422</v>
+        <v>0.03389244763194786</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H15">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I15">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J15">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>6.542951</v>
       </c>
       <c r="O15">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P15">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q15">
-        <v>209.0163537396393</v>
+        <v>201.6453363120085</v>
       </c>
       <c r="R15">
-        <v>1881.147183656754</v>
+        <v>1814.808026808077</v>
       </c>
       <c r="S15">
-        <v>0.1535096279729541</v>
+        <v>0.1168192114719629</v>
       </c>
       <c r="T15">
-        <v>0.1535096279729541</v>
+        <v>0.1168192114719629</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H16">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I16">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J16">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N16">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O16">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P16">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q16">
-        <v>77.94458053557933</v>
+        <v>133.5433129804115</v>
       </c>
       <c r="R16">
-        <v>701.501224820214</v>
+        <v>1201.889816823703</v>
       </c>
       <c r="S16">
-        <v>0.05724548986932009</v>
+        <v>0.07736565995053049</v>
       </c>
       <c r="T16">
-        <v>0.05724548986932008</v>
+        <v>0.07736565995053049</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H17">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I17">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J17">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N17">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O17">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P17">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q17">
-        <v>16.629143631906</v>
+        <v>29.46188940365533</v>
       </c>
       <c r="R17">
-        <v>149.662292687154</v>
+        <v>265.157004632898</v>
       </c>
       <c r="S17">
-        <v>0.01221308097079579</v>
+        <v>0.0170681591330423</v>
       </c>
       <c r="T17">
-        <v>0.01221308097079578</v>
+        <v>0.0170681591330423</v>
       </c>
     </row>
   </sheetData>
